--- a/index/profiles.xlsx
+++ b/index/profiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8700"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Property Rights</t>
+  </si>
+  <si>
+    <t>Judical Effectiveness</t>
+  </si>
+  <si>
+    <t>Government Integrity</t>
+  </si>
+  <si>
+    <t>Tax Burden</t>
+  </si>
+  <si>
+    <t>Gov't Spending</t>
+  </si>
+  <si>
+    <t>Fiscal Health</t>
+  </si>
+  <si>
+    <t>Business Freedom</t>
+  </si>
+  <si>
+    <t>Labor Freedom</t>
+  </si>
+  <si>
+    <t>Monetary Freedom</t>
+  </si>
+  <si>
+    <t>Trade Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment Freedom </t>
+  </si>
+  <si>
+    <t>Financial Freedom</t>
+  </si>
   <si>
     <t>b1</t>
   </si>
@@ -52,11 +88,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -514,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,10 +558,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,7 +570,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,13 +579,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,9 +694,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1013,216 +1051,254 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
+    <row r="1" ht="39.6" spans="2:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>5</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>4</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>4</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>1</v>
       </c>
     </row>
